--- a/biology/Zoologie/Eleutherodactylidae/Eleutherodactylidae.xlsx
+++ b/biology/Zoologie/Eleutherodactylidae/Eleutherodactylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Eleutherodactylidae sont une famille d'amphibiens[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eleutherodactylidae sont une famille d'amphibiens. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Eleutherodactylidae est décrite en 1954 par Bertha Maria Julia Lutz (1894-1976)[2],[3]. 
-Celle-ci est notée éteinte selon Paleobiology Database en 2023[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Eleutherodactylidae est décrite en 1954 par Bertha Maria Julia Lutz (1894-1976),. 
+Celle-ci est notée éteinte selon Paleobiology Database en 2023.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des quatre genres de cette famille se rencontrent du Sud des États-Unis au Nord de l'Amérique du Sud[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des quatre genres de cette famille se rencontrent du Sud des États-Unis au Nord de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2016)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2016) :
 sous-famille des Eleutherodactylinae Lutz, 1954
 genre Diasporus Hedges, Duellman &amp; Heinicke, 2008
 genre Eleutherodactylus Duméril &amp; Bibron, 1841
